--- a/EndpointsDocumentation.xlsx
+++ b/EndpointsDocumentation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Desktop\Studia\Inżynieria oprogramowania\Bydlac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176F0CB-0532-45DF-82F6-EE03BED44D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1429624B-D995-4553-8090-CD6EB1841E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{E5A69AC1-71AD-4ED3-AB32-9095263DE435}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5A69AC1-71AD-4ED3-AB32-9095263DE435}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>URL</t>
   </si>
@@ -80,9 +80,6 @@
     <t>PUT, PATCH</t>
   </si>
   <si>
-    <t>Updates user bio and profile_image (Note: email and username cannot be changed once set), permisson: Authenticated</t>
-  </si>
-  <si>
     <t>Deletes user, permisson: AdminUser</t>
   </si>
   <si>
@@ -107,33 +104,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>Deletes group, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Returns list of group members, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Adds user with id equal to user_id to the group with id equal to group_id, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Removes user with id equal to user_id to the group with id equal to group_id, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Changes moderator status of user with id equal to user_id to the group with id equal to group_id, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Sends message to the group with id equal to group_id, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Updates message with given message_id, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Deletes message with given message_id, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Gets all messages sent to group with given group_id, permisson: Authenticated</t>
-  </si>
-  <si>
     <t>/events</t>
   </si>
   <si>
@@ -146,24 +116,12 @@
     <t>Creates an event, permisson: Authenticated</t>
   </si>
   <si>
-    <t>Updates an event, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Deletes an event, permisson: Authenticated</t>
-  </si>
-  <si>
     <t>User sending request joins event, creates a link between the user and the event, permisson: Authenticated</t>
   </si>
   <si>
     <t>User sending request leaves event, deletes a link between the user and the event, permisson: Authenticated</t>
   </si>
   <si>
-    <t>Retrieves data of a group of the event, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Creates a group for the event, permisson: Authenticated</t>
-  </si>
-  <si>
     <t>EVENTS</t>
   </si>
   <si>
@@ -182,12 +140,6 @@
     <t>Method/Request HTTP</t>
   </si>
   <si>
-    <t>Updates group's data, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>Gets message with given message id, permisson: Authenticated</t>
-  </si>
-  <si>
     <t>/events/{eventId}</t>
   </si>
   <si>
@@ -216,6 +168,90 @@
   </si>
   <si>
     <t>/groups/{groupId}/members/{userId}</t>
+  </si>
+  <si>
+    <t>/users/self</t>
+  </si>
+  <si>
+    <t>Returns data of user with given token, permisson: Authenticated</t>
+  </si>
+  <si>
+    <t>Updates user bio and profile_image (Note: email and username cannot be changed once set), permisson: Authenticated, Self</t>
+  </si>
+  <si>
+    <t>/users/{userId}/groups</t>
+  </si>
+  <si>
+    <t>Returns list of groups that user is member of, permisson: Authenticated, Self</t>
+  </si>
+  <si>
+    <t>/users/{userId}/events</t>
+  </si>
+  <si>
+    <t>Returns list of events that user participates in, permisson: Authenticated, Self</t>
+  </si>
+  <si>
+    <t>/users/from-username/?username={username}</t>
+  </si>
+  <si>
+    <t>Returns user givent their username, permisson: Authenticated</t>
+  </si>
+  <si>
+    <t>Deletes group, permisson: Authenticated, Member, Moderator, NotEventGroup</t>
+  </si>
+  <si>
+    <t>Updates group's data, permisson: Authenticated, Member, Moderator, NotEventGroup</t>
+  </si>
+  <si>
+    <t>Adds user to the group with id equal to group_id, permisson: Authenticated, Member, Moderator, NotEventGroup</t>
+  </si>
+  <si>
+    <t>Returns list of group members, permisson: Authenticated, Member</t>
+  </si>
+  <si>
+    <t>Removes user with id equal to user_id to the group with id equal to group_id, permisson: Authenticated, Member, Moderator | MemberLinkSelf, NotEventGroup</t>
+  </si>
+  <si>
+    <t>Changes moderator status of user with id equal to user_id to the group with id equal to group_id, permisson: Authenticated, Member, Moderator, Host, NotEventGroup</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>Gets all messages sent to group with given group_id, permisson: Authenticated, Member</t>
+  </si>
+  <si>
+    <t>Sends message to the group with id equal to group_id, permisson: Authenticated, Member</t>
+  </si>
+  <si>
+    <t>Gets message with given message id, permisson: Authenticated, Member</t>
+  </si>
+  <si>
+    <t>Updates message with given message_id, permisson: Authenticated, Member, Author</t>
+  </si>
+  <si>
+    <t>Deletes message with given message_id, permisson: Authenticated, Member, Author | Moderator</t>
+  </si>
+  <si>
+    <t>Updates an event, permisson: Authenticated, Host</t>
+  </si>
+  <si>
+    <t>Deletes an event, permisson: Authenticated, Host</t>
+  </si>
+  <si>
+    <t>/events/{eventId}/participants</t>
+  </si>
+  <si>
+    <t>Returns list of users participating in event with id equal to eventId, permisson: Authenticated</t>
+  </si>
+  <si>
+    <t>Creates a group for the event, permisson: Authenticated, Host</t>
+  </si>
+  <si>
+    <t>Retrieves data of a group of the event, permisson: Authenticated, EventParticipant</t>
   </si>
 </sst>
 </file>
@@ -269,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,41 +328,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -641,38 +654,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C3C58B-5FC6-495A-8FCC-AE656392218B}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -683,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -694,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -705,14 +716,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -723,331 +734,397 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
     <sortCondition ref="B2:B36"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/EndpointsDocumentation.xlsx
+++ b/EndpointsDocumentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1429624B-D995-4553-8090-CD6EB1841E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B7C0DB-2588-4D98-8C6A-55A132B0285F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5A69AC1-71AD-4ED3-AB32-9095263DE435}"/>
+    <workbookView xWindow="7200" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{E5A69AC1-71AD-4ED3-AB32-9095263DE435}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>/logout</t>
   </si>
   <si>
-    <t>Logs out user with data sent in get request, permisson: Any</t>
-  </si>
-  <si>
     <t>/users</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Returns list of all groups, permisson: AdminUser</t>
   </si>
   <si>
-    <t>Returns group with given id, permisson: Authenticated</t>
-  </si>
-  <si>
     <t>Creates new group with data sent in post request, permisson: Authenticated</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>/users/from-username/?username={username}</t>
   </si>
   <si>
-    <t>Returns user givent their username, permisson: Authenticated</t>
-  </si>
-  <si>
     <t>Deletes group, permisson: Authenticated, Member, Moderator, NotEventGroup</t>
   </si>
   <si>
@@ -215,12 +206,6 @@
     <t>Changes moderator status of user with id equal to user_id to the group with id equal to group_id, permisson: Authenticated, Member, Moderator, Host, NotEventGroup</t>
   </si>
   <si>
-    <t>Members</t>
-  </si>
-  <si>
-    <t>Messages</t>
-  </si>
-  <si>
     <t>Gets all messages sent to group with given group_id, permisson: Authenticated, Member</t>
   </si>
   <si>
@@ -252,6 +237,21 @@
   </si>
   <si>
     <t>Retrieves data of a group of the event, permisson: Authenticated, EventParticipant</t>
+  </si>
+  <si>
+    <t>Returns user given their username, permisson: Authenticated</t>
+  </si>
+  <si>
+    <t>MEMBERS</t>
+  </si>
+  <si>
+    <t>MESSAGES</t>
+  </si>
+  <si>
+    <t>Returns group with given id, permisson: Authenticated, Member</t>
+  </si>
+  <si>
+    <t>Logs out user with data sent in post request, permisson: Any</t>
   </si>
 </sst>
 </file>
@@ -332,14 +332,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -656,7 +655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C3C58B-5FC6-495A-8FCC-AE656392218B}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -667,18 +668,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -702,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,7 +719,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -728,10 +729,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,10 +740,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,70 +751,70 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -823,10 +824,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -856,61 +857,61 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,10 +919,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,15 +930,15 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -947,10 +948,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,37 +970,37 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1009,10 +1010,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,32 +1032,32 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,10 +1065,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,10 +1076,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,10 +1087,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,21 +1098,21 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
